--- a/Stereoaufnahmen_Anja/protokoll.xlsx
+++ b/Stereoaufnahmen_Anja/protokoll.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gitkraken\Masterthesis_DuCC\Stereoaufnahmen_Anja\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Programme\Gitkraken\Masterthesis_DuCC\Stereoaufnahmen_Anja\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>6D links</t>
   </si>
@@ -59,15 +59,9 @@
     <t xml:space="preserve">z = </t>
   </si>
   <si>
-    <t xml:space="preserve">K in mm </t>
-  </si>
-  <si>
     <t>K in px</t>
   </si>
   <si>
-    <t>K in mm</t>
-  </si>
-  <si>
     <t>PixelPitch = 4.29 µm</t>
   </si>
   <si>
@@ -80,9 +74,6 @@
     <t>Rotation um y von 6D aus</t>
   </si>
   <si>
-    <t>ca 55 mm</t>
-  </si>
-  <si>
     <t>Aus VibraTilt</t>
   </si>
   <si>
@@ -140,9 +131,6 @@
     <t>60D</t>
   </si>
   <si>
-    <t>Azimuth (facin north)</t>
-  </si>
-  <si>
     <t>Azimuth (facing north)</t>
   </si>
   <si>
@@ -152,10 +140,16 @@
     <t>ca .24,65°</t>
   </si>
   <si>
-    <t>150-160 mm</t>
-  </si>
-  <si>
-    <t>ca 0,5 mm</t>
+    <t>K in mm (transponiert)</t>
+  </si>
+  <si>
+    <t>150-160 mm (+)</t>
+  </si>
+  <si>
+    <t>ca 0,5 mm (-)</t>
+  </si>
+  <si>
+    <t>ca 55 mm(-)</t>
   </si>
 </sst>
 </file>
@@ -591,13 +585,12 @@
   <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="1" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" customWidth="1"/>
@@ -612,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -623,7 +616,7 @@
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -631,7 +624,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>2663.9696617938398</v>
@@ -643,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3">
         <v>4337.3709117102799</v>
@@ -697,10 +690,76 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>38</v>
+      </c>
+      <c r="B7">
+        <f>(6.5*B3)/1000</f>
+        <v>17.315802801659959</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f>(6.5*B5)/1000</f>
+        <v>6.1465898633037339</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>38</v>
+      </c>
+      <c r="I7">
+        <f>(4.29*I3)/1000</f>
+        <v>18.6073212112371</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f>(4.29*I5)/1000</f>
+        <v>4.1456509680817542</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f>(6.5*C4)/1000</f>
+        <v>17.319818665955129</v>
+      </c>
+      <c r="D8">
+        <f>(6.5*C5)/1000</f>
+        <v>4.6006155274208034</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f>(4.29*J4)/1000</f>
+        <v>18.587960985956418</v>
+      </c>
+      <c r="K8">
+        <f>(4.29*J5)/1000</f>
+        <v>3.2270653898613659</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -719,7 +778,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -733,7 +792,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H14" t="s">
         <v>3</v>
@@ -749,7 +808,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J16" t="s">
         <v>6</v>
@@ -757,7 +816,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -773,7 +832,7 @@
         <v>8</v>
       </c>
       <c r="J21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -781,7 +840,7 @@
         <v>9</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -789,31 +848,31 @@
         <v>10</v>
       </c>
       <c r="J23" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B28">
         <v>72.323999999999998</v>
@@ -827,7 +886,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -835,7 +894,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -843,7 +902,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
@@ -852,7 +911,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>100.736</v>
@@ -870,7 +929,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -882,7 +941,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -906,16 +965,16 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
@@ -924,13 +983,13 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
@@ -939,44 +998,44 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
         <v>22</v>
       </c>
-      <c r="B40" t="s">
-        <v>25</v>
-      </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D40" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D42" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Stereoaufnahmen_Anja/protokoll.xlsx
+++ b/Stereoaufnahmen_Anja/protokoll.xlsx
@@ -143,13 +143,13 @@
     <t>K in mm (transponiert)</t>
   </si>
   <si>
-    <t>150-160 mm (+)</t>
-  </si>
-  <si>
-    <t>ca 0,5 mm (-)</t>
-  </si>
-  <si>
-    <t>ca 55 mm(-)</t>
+    <t>150-160 cm (+)</t>
+  </si>
+  <si>
+    <t>ca 1 cm (-)</t>
+  </si>
+  <si>
+    <t>ca 55 cm(-)</t>
   </si>
 </sst>
 </file>
@@ -585,7 +585,7 @@
   <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Stereoaufnahmen_Anja/protokoll.xlsx
+++ b/Stereoaufnahmen_Anja/protokoll.xlsx
@@ -146,10 +146,10 @@
     <t>150-160 cm (+)</t>
   </si>
   <si>
-    <t>ca 1 cm (-)</t>
-  </si>
-  <si>
-    <t>ca 55 cm(-)</t>
+    <t>ca 50 - 55 cm(-)</t>
+  </si>
+  <si>
+    <t>ca 0,7 - 1 cm (-)</t>
   </si>
 </sst>
 </file>
@@ -585,7 +585,7 @@
   <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,7 +840,7 @@
         <v>9</v>
       </c>
       <c r="J22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -848,7 +848,7 @@
         <v>10</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">

--- a/Stereoaufnahmen_Anja/protokoll.xlsx
+++ b/Stereoaufnahmen_Anja/protokoll.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -585,7 +585,7 @@
   <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,16 +610,14 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
       <c r="L1" s="4"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -635,16 +633,16 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
+      <c r="G3">
+        <v>4337.3709117102799</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
       <c r="I3">
-        <v>4337.3709117102799</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
         <v>0</v>
       </c>
     </row>
@@ -658,13 +656,13 @@
       <c r="D4">
         <v>0</v>
       </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4332.8580386844797</v>
+      </c>
       <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>4332.8580386844797</v>
-      </c>
-      <c r="K4">
         <v>0</v>
       </c>
     </row>
@@ -678,13 +676,13 @@
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="G5">
+        <v>966.35220701206401</v>
+      </c>
+      <c r="H5">
+        <v>752.22969460637898</v>
+      </c>
       <c r="I5">
-        <v>966.35220701206401</v>
-      </c>
-      <c r="J5">
-        <v>752.22969460637898</v>
-      </c>
-      <c r="K5">
         <v>1</v>
       </c>
     </row>
@@ -703,18 +701,18 @@
         <f>(6.5*B5)/1000</f>
         <v>6.1465898633037339</v>
       </c>
-      <c r="H7" t="s">
+      <c r="F7" t="s">
         <v>38</v>
       </c>
+      <c r="G7">
+        <f>(4.29*G3)/1000</f>
+        <v>18.6073212112371</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
       <c r="I7">
-        <f>(4.29*I3)/1000</f>
-        <v>18.6073212112371</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <f>(4.29*I5)/1000</f>
+        <f>(4.29*G5)/1000</f>
         <v>4.1456509680817542</v>
       </c>
     </row>
@@ -730,15 +728,15 @@
         <f>(6.5*C5)/1000</f>
         <v>4.6006155274208034</v>
       </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f>(4.29*H4)/1000</f>
+        <v>18.587960985956418</v>
+      </c>
       <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <f>(4.29*J4)/1000</f>
-        <v>18.587960985956418</v>
-      </c>
-      <c r="K8">
-        <f>(4.29*J5)/1000</f>
+        <f>(4.29*H5)/1000</f>
         <v>3.2270653898613659</v>
       </c>
     </row>
@@ -752,13 +750,13 @@
       <c r="D9">
         <v>1</v>
       </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
       <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
         <v>1</v>
       </c>
     </row>
@@ -772,8 +770,6 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -783,26 +779,26 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="H12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
       <c r="H14" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J15" t="s">
+      <c r="H15" t="s">
         <v>5</v>
       </c>
     </row>
@@ -810,7 +806,7 @@
       <c r="A16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J16" t="s">
+      <c r="H16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -820,34 +816,34 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H19" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I21" t="s">
+      <c r="G21" t="s">
         <v>8</v>
       </c>
-      <c r="J21" t="s">
+      <c r="H21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I22" t="s">
+      <c r="G22" t="s">
         <v>9</v>
       </c>
-      <c r="J22" t="s">
+      <c r="H22" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I23" t="s">
+      <c r="G23" t="s">
         <v>10</v>
       </c>
-      <c r="J23" t="s">
+      <c r="H23" t="s">
         <v>40</v>
       </c>
     </row>

--- a/Stereoaufnahmen_Anja/protokoll.xlsx
+++ b/Stereoaufnahmen_Anja/protokoll.xlsx
@@ -585,7 +585,7 @@
   <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="B3" sqref="B3:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
